--- a/DATA/corporate_transactions.xlsx
+++ b/DATA/corporate_transactions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Desktop\GitHub\ANZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Desktop\GitHub\ANZ\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45A4BE8-3695-4742-9A3F-9D099AB4596B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88921289-ADDC-4534-B680-A2C82F643C42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D66C7B1-B594-4341-9F38-758CCFDA9F13}"/>
   </bookViews>
@@ -620,14 +620,14 @@
   <dimension ref="A1:I884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
